--- a/VarexJSmallScaleEvaluation/Results/Reference/ALLref.xlsx
+++ b/VarexJSmallScaleEvaluation/Results/Reference/ALLref.xlsx
@@ -16,6 +16,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
@@ -813,8 +814,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113095680"/>
-        <c:axId val="73312512"/>
+        <c:axId val="137569792"/>
+        <c:axId val="153470656"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -917,11 +918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113096704"/>
-        <c:axId val="73313088"/>
+        <c:axId val="142202880"/>
+        <c:axId val="153471232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113095680"/>
+        <c:axId val="137569792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +931,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73312512"/>
+        <c:crossAx val="153470656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -938,7 +939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73312512"/>
+        <c:axId val="153470656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,12 +950,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113095680"/>
+        <c:crossAx val="137569792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73313088"/>
+        <c:axId val="153471232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,12 +965,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113096704"/>
+        <c:crossAx val="142202880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="113096704"/>
+        <c:axId val="142202880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,7 +979,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73313088"/>
+        <c:crossAx val="153471232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1120,8 +1121,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75938304"/>
-        <c:axId val="73314816"/>
+        <c:axId val="137570304"/>
+        <c:axId val="153472960"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1224,11 +1225,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113914880"/>
-        <c:axId val="73315392"/>
+        <c:axId val="145200128"/>
+        <c:axId val="153473536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75938304"/>
+        <c:axId val="137570304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73314816"/>
+        <c:crossAx val="153472960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1245,7 +1246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73314816"/>
+        <c:axId val="153472960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,12 +1257,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75938304"/>
+        <c:crossAx val="137570304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73315392"/>
+        <c:axId val="153473536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,12 +1272,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113914880"/>
+        <c:crossAx val="145200128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="113914880"/>
+        <c:axId val="145200128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,7 +1286,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73315392"/>
+        <c:crossAx val="153473536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1670,8 +1671,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113915904"/>
-        <c:axId val="73317120"/>
+        <c:axId val="145201152"/>
+        <c:axId val="153475264"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2017,11 +2018,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113098240"/>
-        <c:axId val="73317696"/>
+        <c:axId val="142204416"/>
+        <c:axId val="153475840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113915904"/>
+        <c:axId val="145201152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2030,7 +2031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73317120"/>
+        <c:crossAx val="153475264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2038,7 +2039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73317120"/>
+        <c:axId val="153475264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,12 +2050,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113915904"/>
+        <c:crossAx val="145201152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73317696"/>
+        <c:axId val="153475840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2064,12 +2065,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113098240"/>
+        <c:crossAx val="142204416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="113098240"/>
+        <c:axId val="142204416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,7 +2079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73317696"/>
+        <c:crossAx val="153475840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2088,7 +2089,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4136,11 +4136,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114219008"/>
-        <c:axId val="114050176"/>
+        <c:axId val="145459200"/>
+        <c:axId val="154567232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114219008"/>
+        <c:axId val="145459200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4169,7 +4169,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114050176"/>
+        <c:crossAx val="154567232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4179,7 +4179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114050176"/>
+        <c:axId val="154567232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4209,7 +4209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114219008"/>
+        <c:crossAx val="145459200"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5832,11 +5832,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114220544"/>
-        <c:axId val="114052480"/>
+        <c:axId val="145460736"/>
+        <c:axId val="154569536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114220544"/>
+        <c:axId val="145460736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5865,7 +5865,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114052480"/>
+        <c:crossAx val="154569536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5875,7 +5875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114052480"/>
+        <c:axId val="154569536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -5906,7 +5906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114220544"/>
+        <c:crossAx val="145460736"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7650,11 +7650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75938816"/>
-        <c:axId val="114054784"/>
+        <c:axId val="145834496"/>
+        <c:axId val="154571840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75938816"/>
+        <c:axId val="145834496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7683,7 +7683,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114054784"/>
+        <c:crossAx val="154571840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7693,7 +7693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114054784"/>
+        <c:axId val="154571840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -7724,7 +7724,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75938816"/>
+        <c:crossAx val="145834496"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7747,6 +7747,5979 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23075381944444445"/>
+          <c:y val="3.9077203541951828E-2"/>
+          <c:w val="0.71278055555555553"/>
+          <c:h val="0.82621361111111113"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-Core</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$D$2:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>208.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>308.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>842</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1757</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2444.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3742.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6351.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11815</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22572.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43260.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85048</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>169680</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-BDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>304.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>304.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>317.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>436.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>521.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>689.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1002.6666666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1616.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2380</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3298.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5894.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11365.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23270.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$E$2:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>259.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>304.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>309.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>316.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>328.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>345.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>456.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>593.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>781.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1015.3333333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1397.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1930.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2455.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3449</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5472.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9631</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18016.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34271</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>69601.333333333328</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>138675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPLat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$F$2:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>189.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>388.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1634</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3355.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6725.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13645.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27652</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56484.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>114970</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>234774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VarexJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>672.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>663.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>713.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>670.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>708.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>669.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>664.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>672.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>670.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>668.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>673.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>671.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>671.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>675.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>672.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>700.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>678.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>674.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>676.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>676.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>677.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>674.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>675.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>678.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>680.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>685.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>680.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>684.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>684.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>689.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>677.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>689.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>683.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>684.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>684.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>686.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>687.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>699.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>690.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>695.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>689.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>688.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>687.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>692.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>692.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>694.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>697.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>699.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>714.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>701.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>696.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>696.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>699.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>697.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>704.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>702.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>701.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>701.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>702.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>706.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>706.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>709.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>747.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>726.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>710.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>707.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>741.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>720.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>713.66666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="153155584"/>
+        <c:axId val="163779648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="153155584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Options</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163779648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="101"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="163779648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="153155584"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23075381944444445"/>
+          <c:y val="3.9077203541951828E-2"/>
+          <c:w val="0.71278055555555553"/>
+          <c:h val="0.82621361111111113"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-Core</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$I$2:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1911</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3831</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7671</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15351</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30711</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61431</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>122871</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>245751</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>491511</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>983031</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1966071</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3932151</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7864311</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15728631</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31457271</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62914551</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-BDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$G$2:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9756</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19484</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38940</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77852</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>155676</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>311324</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>622620</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1245212</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2490396</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4980764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$J$2:$J$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1158</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4614</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9222</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18438</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36870</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73734</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>147462</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>294918</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>589830</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1179654</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2359302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4718598</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9437190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18874374</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37748742</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VarexJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$H$2:$H$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>813</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="153154560"/>
+        <c:axId val="164233216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="153154560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Options</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164233216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="101"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164233216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Instructions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="153154560"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23075381944444445"/>
+          <c:y val="3.9077203541951828E-2"/>
+          <c:w val="0.71278055555555553"/>
+          <c:h val="0.82621361111111113"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-Core</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$M$2:$M$102</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>171.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-BDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$K$2:$K$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>107.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>408.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1182.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$N$2:$N$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPLat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$O$2:$O$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>52.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VarexJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$L$2:$L$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>27.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="153157120"/>
+        <c:axId val="164236096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="153157120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Options</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164236096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="101"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164236096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Memory Consumptions in MB</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="153157120"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50136979166666662"/>
+          <c:y val="3.0074166666666669E-2"/>
+          <c:w val="0.45453298611111109"/>
+          <c:h val="0.32954583333333332"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7962,6 +13935,102 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>594000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9075</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>470175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9075</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>251100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8491,6 +14560,2631 @@
         <row r="102">
           <cell r="A102">
             <v>100</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="JPF-Core"/>
+      <sheetName val="JPF-BDD"/>
+      <sheetName val="JPF-SE"/>
+      <sheetName val="VarexJ"/>
+      <sheetName val="SPLat"/>
+      <sheetName val="All"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="P1" t="str">
+            <v>JPF-Core</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>358.66666666666669</v>
+          </cell>
+          <cell r="C2">
+            <v>714</v>
+          </cell>
+          <cell r="D2">
+            <v>189.33333333333334</v>
+          </cell>
+          <cell r="E2">
+            <v>259</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>51</v>
+          </cell>
+          <cell r="H2">
+            <v>24</v>
+          </cell>
+          <cell r="I2">
+            <v>22</v>
+          </cell>
+          <cell r="J2">
+            <v>24</v>
+          </cell>
+          <cell r="K2">
+            <v>27</v>
+          </cell>
+          <cell r="L2">
+            <v>21</v>
+          </cell>
+          <cell r="M2">
+            <v>18</v>
+          </cell>
+          <cell r="N2">
+            <v>7</v>
+          </cell>
+          <cell r="O2">
+            <v>0.66666666666666663</v>
+          </cell>
+          <cell r="P2" t="str">
+            <v>JPF-BDD</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>368.66666666666669</v>
+          </cell>
+          <cell r="C3">
+            <v>674</v>
+          </cell>
+          <cell r="D3">
+            <v>196</v>
+          </cell>
+          <cell r="E3">
+            <v>304</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>70</v>
+          </cell>
+          <cell r="H3">
+            <v>35</v>
+          </cell>
+          <cell r="I3">
+            <v>54</v>
+          </cell>
+          <cell r="J3">
+            <v>44</v>
+          </cell>
+          <cell r="K3">
+            <v>27</v>
+          </cell>
+          <cell r="L3">
+            <v>21.333333333333332</v>
+          </cell>
+          <cell r="M3">
+            <v>18</v>
+          </cell>
+          <cell r="N3">
+            <v>9</v>
+          </cell>
+          <cell r="O3">
+            <v>0</v>
+          </cell>
+          <cell r="P3" t="str">
+            <v>JPF-SE</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>371.66666666666669</v>
+          </cell>
+          <cell r="C4">
+            <v>707.33333333333337</v>
+          </cell>
+          <cell r="D4">
+            <v>199</v>
+          </cell>
+          <cell r="E4">
+            <v>304</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>89</v>
+          </cell>
+          <cell r="H4">
+            <v>46</v>
+          </cell>
+          <cell r="I4">
+            <v>118</v>
+          </cell>
+          <cell r="J4">
+            <v>84</v>
+          </cell>
+          <cell r="K4">
+            <v>27</v>
+          </cell>
+          <cell r="L4">
+            <v>21</v>
+          </cell>
+          <cell r="M4">
+            <v>18</v>
+          </cell>
+          <cell r="N4">
+            <v>9</v>
+          </cell>
+          <cell r="O4">
+            <v>0</v>
+          </cell>
+          <cell r="P4" t="str">
+            <v>SPLat</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>373</v>
+          </cell>
+          <cell r="C5">
+            <v>674</v>
+          </cell>
+          <cell r="D5">
+            <v>208</v>
+          </cell>
+          <cell r="E5">
+            <v>310.66666666666669</v>
+          </cell>
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+          <cell r="G5">
+            <v>108</v>
+          </cell>
+          <cell r="H5">
+            <v>57</v>
+          </cell>
+          <cell r="I5">
+            <v>246</v>
+          </cell>
+          <cell r="J5">
+            <v>164</v>
+          </cell>
+          <cell r="K5">
+            <v>27</v>
+          </cell>
+          <cell r="L5">
+            <v>21.333333333333332</v>
+          </cell>
+          <cell r="M5">
+            <v>18</v>
+          </cell>
+          <cell r="N5">
+            <v>9</v>
+          </cell>
+          <cell r="O5">
+            <v>0</v>
+          </cell>
+          <cell r="P5" t="str">
+            <v>VarexJ</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>367.33333333333331</v>
+          </cell>
+          <cell r="C6">
+            <v>670</v>
+          </cell>
+          <cell r="D6">
+            <v>220.66666666666666</v>
+          </cell>
+          <cell r="E6">
+            <v>321</v>
+          </cell>
+          <cell r="F6">
+            <v>0.33333333333333331</v>
+          </cell>
+          <cell r="G6">
+            <v>127</v>
+          </cell>
+          <cell r="H6">
+            <v>68</v>
+          </cell>
+          <cell r="I6">
+            <v>502</v>
+          </cell>
+          <cell r="J6">
+            <v>324</v>
+          </cell>
+          <cell r="K6">
+            <v>28</v>
+          </cell>
+          <cell r="L6">
+            <v>21</v>
+          </cell>
+          <cell r="M6">
+            <v>19</v>
+          </cell>
+          <cell r="N6">
+            <v>10.666666666666666</v>
+          </cell>
+          <cell r="O6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>384.66666666666669</v>
+          </cell>
+          <cell r="C7">
+            <v>680.33333333333337</v>
+          </cell>
+          <cell r="D7">
+            <v>244</v>
+          </cell>
+          <cell r="E7">
+            <v>336</v>
+          </cell>
+          <cell r="F7">
+            <v>0</v>
+          </cell>
+          <cell r="G7">
+            <v>146</v>
+          </cell>
+          <cell r="H7">
+            <v>79</v>
+          </cell>
+          <cell r="I7">
+            <v>1014</v>
+          </cell>
+          <cell r="J7">
+            <v>644</v>
+          </cell>
+          <cell r="K7">
+            <v>27.333333333333332</v>
+          </cell>
+          <cell r="L7">
+            <v>21</v>
+          </cell>
+          <cell r="M7">
+            <v>20</v>
+          </cell>
+          <cell r="N7">
+            <v>11.666666666666666</v>
+          </cell>
+          <cell r="O7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>369</v>
+          </cell>
+          <cell r="C8">
+            <v>676.33333333333337</v>
+          </cell>
+          <cell r="D8">
+            <v>289.66666666666669</v>
+          </cell>
+          <cell r="E8">
+            <v>356</v>
+          </cell>
+          <cell r="F8">
+            <v>0.33333333333333331</v>
+          </cell>
+          <cell r="G8">
+            <v>165</v>
+          </cell>
+          <cell r="H8">
+            <v>90</v>
+          </cell>
+          <cell r="I8">
+            <v>2038</v>
+          </cell>
+          <cell r="J8">
+            <v>1284</v>
+          </cell>
+          <cell r="K8">
+            <v>28</v>
+          </cell>
+          <cell r="L8">
+            <v>21</v>
+          </cell>
+          <cell r="M8">
+            <v>22</v>
+          </cell>
+          <cell r="N8">
+            <v>13.333333333333334</v>
+          </cell>
+          <cell r="O8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>378.66666666666669</v>
+          </cell>
+          <cell r="C9">
+            <v>683.66666666666663</v>
+          </cell>
+          <cell r="D9">
+            <v>323.33333333333331</v>
+          </cell>
+          <cell r="E9">
+            <v>397.33333333333331</v>
+          </cell>
+          <cell r="F9">
+            <v>0.33333333333333331</v>
+          </cell>
+          <cell r="G9">
+            <v>184</v>
+          </cell>
+          <cell r="H9">
+            <v>101</v>
+          </cell>
+          <cell r="I9">
+            <v>4086</v>
+          </cell>
+          <cell r="J9">
+            <v>2564</v>
+          </cell>
+          <cell r="K9">
+            <v>28</v>
+          </cell>
+          <cell r="L9">
+            <v>21.333333333333332</v>
+          </cell>
+          <cell r="M9">
+            <v>24</v>
+          </cell>
+          <cell r="N9">
+            <v>17.666666666666668</v>
+          </cell>
+          <cell r="O9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>374.66666666666669</v>
+          </cell>
+          <cell r="C10">
+            <v>698.33333333333337</v>
+          </cell>
+          <cell r="D10">
+            <v>358.33333333333331</v>
+          </cell>
+          <cell r="E10">
+            <v>477</v>
+          </cell>
+          <cell r="F10">
+            <v>1</v>
+          </cell>
+          <cell r="G10">
+            <v>203</v>
+          </cell>
+          <cell r="H10">
+            <v>112</v>
+          </cell>
+          <cell r="I10">
+            <v>8182</v>
+          </cell>
+          <cell r="J10">
+            <v>5124</v>
+          </cell>
+          <cell r="K10">
+            <v>28</v>
+          </cell>
+          <cell r="L10">
+            <v>21</v>
+          </cell>
+          <cell r="M10">
+            <v>29.666666666666668</v>
+          </cell>
+          <cell r="N10">
+            <v>25</v>
+          </cell>
+          <cell r="O10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>503</v>
+          </cell>
+          <cell r="C11">
+            <v>693.66666666666663</v>
+          </cell>
+          <cell r="D11">
+            <v>448</v>
+          </cell>
+          <cell r="E11">
+            <v>617.66666666666663</v>
+          </cell>
+          <cell r="F11">
+            <v>1.3333333333333333</v>
+          </cell>
+          <cell r="G11">
+            <v>222</v>
+          </cell>
+          <cell r="H11">
+            <v>123</v>
+          </cell>
+          <cell r="I11">
+            <v>16374</v>
+          </cell>
+          <cell r="J11">
+            <v>10244</v>
+          </cell>
+          <cell r="K11">
+            <v>28</v>
+          </cell>
+          <cell r="L11">
+            <v>23</v>
+          </cell>
+          <cell r="M11">
+            <v>32</v>
+          </cell>
+          <cell r="N11">
+            <v>38</v>
+          </cell>
+          <cell r="O11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>372</v>
+          </cell>
+          <cell r="C12">
+            <v>681.66666666666663</v>
+          </cell>
+          <cell r="D12">
+            <v>599.33333333333337</v>
+          </cell>
+          <cell r="E12">
+            <v>827.33333333333337</v>
+          </cell>
+          <cell r="F12">
+            <v>1.6666666666666667</v>
+          </cell>
+          <cell r="G12">
+            <v>241</v>
+          </cell>
+          <cell r="H12">
+            <v>134</v>
+          </cell>
+          <cell r="I12">
+            <v>32758</v>
+          </cell>
+          <cell r="J12">
+            <v>20484</v>
+          </cell>
+          <cell r="K12">
+            <v>28</v>
+          </cell>
+          <cell r="L12">
+            <v>23</v>
+          </cell>
+          <cell r="M12">
+            <v>36</v>
+          </cell>
+          <cell r="N12">
+            <v>39.666666666666664</v>
+          </cell>
+          <cell r="O12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>374</v>
+          </cell>
+          <cell r="C13">
+            <v>684.66666666666663</v>
+          </cell>
+          <cell r="D13">
+            <v>880.66666666666663</v>
+          </cell>
+          <cell r="E13">
+            <v>1108.3333333333333</v>
+          </cell>
+          <cell r="F13">
+            <v>3</v>
+          </cell>
+          <cell r="G13">
+            <v>260</v>
+          </cell>
+          <cell r="H13">
+            <v>145</v>
+          </cell>
+          <cell r="I13">
+            <v>65526</v>
+          </cell>
+          <cell r="J13">
+            <v>40964</v>
+          </cell>
+          <cell r="K13">
+            <v>28</v>
+          </cell>
+          <cell r="L13">
+            <v>23</v>
+          </cell>
+          <cell r="M13">
+            <v>38</v>
+          </cell>
+          <cell r="N13">
+            <v>69</v>
+          </cell>
+          <cell r="O13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>371.33333333333331</v>
+          </cell>
+          <cell r="C14">
+            <v>688.33333333333337</v>
+          </cell>
+          <cell r="D14">
+            <v>1325.6666666666667</v>
+          </cell>
+          <cell r="E14">
+            <v>1547.6666666666667</v>
+          </cell>
+          <cell r="F14">
+            <v>3.6666666666666665</v>
+          </cell>
+          <cell r="G14">
+            <v>279</v>
+          </cell>
+          <cell r="H14">
+            <v>156</v>
+          </cell>
+          <cell r="I14">
+            <v>131062</v>
+          </cell>
+          <cell r="J14">
+            <v>81924</v>
+          </cell>
+          <cell r="K14">
+            <v>28</v>
+          </cell>
+          <cell r="L14">
+            <v>23</v>
+          </cell>
+          <cell r="M14">
+            <v>47.666666666666664</v>
+          </cell>
+          <cell r="N14">
+            <v>69</v>
+          </cell>
+          <cell r="O14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>369.66666666666669</v>
+          </cell>
+          <cell r="C15">
+            <v>683.33333333333337</v>
+          </cell>
+          <cell r="D15">
+            <v>1839.6666666666667</v>
+          </cell>
+          <cell r="E15">
+            <v>2170.6666666666665</v>
+          </cell>
+          <cell r="F15">
+            <v>5.333333333333333</v>
+          </cell>
+          <cell r="G15">
+            <v>298</v>
+          </cell>
+          <cell r="H15">
+            <v>167</v>
+          </cell>
+          <cell r="I15">
+            <v>262134</v>
+          </cell>
+          <cell r="J15">
+            <v>163844</v>
+          </cell>
+          <cell r="K15">
+            <v>28.666666666666668</v>
+          </cell>
+          <cell r="L15">
+            <v>23</v>
+          </cell>
+          <cell r="M15">
+            <v>69</v>
+          </cell>
+          <cell r="N15">
+            <v>112.66666666666667</v>
+          </cell>
+          <cell r="O15">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>376.33333333333331</v>
+          </cell>
+          <cell r="C16">
+            <v>671.66666666666663</v>
+          </cell>
+          <cell r="D16">
+            <v>2529.6666666666665</v>
+          </cell>
+          <cell r="E16">
+            <v>2766.6666666666665</v>
+          </cell>
+          <cell r="F16">
+            <v>11</v>
+          </cell>
+          <cell r="G16">
+            <v>317</v>
+          </cell>
+          <cell r="H16">
+            <v>178</v>
+          </cell>
+          <cell r="I16">
+            <v>524278</v>
+          </cell>
+          <cell r="J16">
+            <v>327684</v>
+          </cell>
+          <cell r="K16">
+            <v>29</v>
+          </cell>
+          <cell r="L16">
+            <v>23</v>
+          </cell>
+          <cell r="M16">
+            <v>90.666666666666671</v>
+          </cell>
+          <cell r="N16">
+            <v>112</v>
+          </cell>
+          <cell r="O16">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>383.66666666666669</v>
+          </cell>
+          <cell r="C17">
+            <v>684</v>
+          </cell>
+          <cell r="D17">
+            <v>3815.6666666666665</v>
+          </cell>
+          <cell r="E17">
+            <v>3793</v>
+          </cell>
+          <cell r="F17">
+            <v>23.666666666666668</v>
+          </cell>
+          <cell r="G17">
+            <v>336</v>
+          </cell>
+          <cell r="H17">
+            <v>189</v>
+          </cell>
+          <cell r="I17">
+            <v>1048566</v>
+          </cell>
+          <cell r="J17">
+            <v>655364</v>
+          </cell>
+          <cell r="K17">
+            <v>29</v>
+          </cell>
+          <cell r="L17">
+            <v>23</v>
+          </cell>
+          <cell r="M17">
+            <v>90.666666666666671</v>
+          </cell>
+          <cell r="N17">
+            <v>220.66666666666666</v>
+          </cell>
+          <cell r="O17">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>391.33333333333331</v>
+          </cell>
+          <cell r="C18">
+            <v>676.66666666666663</v>
+          </cell>
+          <cell r="D18">
+            <v>6368.666666666667</v>
+          </cell>
+          <cell r="E18">
+            <v>5883.666666666667</v>
+          </cell>
+          <cell r="F18">
+            <v>50.333333333333336</v>
+          </cell>
+          <cell r="G18">
+            <v>355</v>
+          </cell>
+          <cell r="H18">
+            <v>200</v>
+          </cell>
+          <cell r="I18">
+            <v>2097142</v>
+          </cell>
+          <cell r="J18">
+            <v>1310724</v>
+          </cell>
+          <cell r="K18">
+            <v>29</v>
+          </cell>
+          <cell r="L18">
+            <v>23</v>
+          </cell>
+          <cell r="M18">
+            <v>90.666666666666671</v>
+          </cell>
+          <cell r="N18">
+            <v>131.33333333333334</v>
+          </cell>
+          <cell r="O18">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>382.66666666666669</v>
+          </cell>
+          <cell r="C19">
+            <v>673</v>
+          </cell>
+          <cell r="D19">
+            <v>11601.333333333334</v>
+          </cell>
+          <cell r="E19">
+            <v>10118.333333333334</v>
+          </cell>
+          <cell r="F19">
+            <v>105.33333333333333</v>
+          </cell>
+          <cell r="G19">
+            <v>374</v>
+          </cell>
+          <cell r="H19">
+            <v>211</v>
+          </cell>
+          <cell r="I19">
+            <v>4194294</v>
+          </cell>
+          <cell r="J19">
+            <v>2621444</v>
+          </cell>
+          <cell r="K19">
+            <v>29</v>
+          </cell>
+          <cell r="L19">
+            <v>23</v>
+          </cell>
+          <cell r="M19">
+            <v>134</v>
+          </cell>
+          <cell r="N19">
+            <v>131.33333333333334</v>
+          </cell>
+          <cell r="O19">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>402.33333333333331</v>
+          </cell>
+          <cell r="C20">
+            <v>675.33333333333337</v>
+          </cell>
+          <cell r="D20">
+            <v>22163.333333333332</v>
+          </cell>
+          <cell r="E20">
+            <v>18815.333333333332</v>
+          </cell>
+          <cell r="F20">
+            <v>223.33333333333334</v>
+          </cell>
+          <cell r="G20">
+            <v>393</v>
+          </cell>
+          <cell r="H20">
+            <v>222</v>
+          </cell>
+          <cell r="I20">
+            <v>8388598</v>
+          </cell>
+          <cell r="J20">
+            <v>5242884</v>
+          </cell>
+          <cell r="K20">
+            <v>29</v>
+          </cell>
+          <cell r="L20">
+            <v>23</v>
+          </cell>
+          <cell r="M20">
+            <v>121.33333333333333</v>
+          </cell>
+          <cell r="N20">
+            <v>177.33333333333334</v>
+          </cell>
+          <cell r="O20">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>403.33333333333331</v>
+          </cell>
+          <cell r="C21">
+            <v>674.66666666666663</v>
+          </cell>
+          <cell r="D21">
+            <v>43927</v>
+          </cell>
+          <cell r="E21">
+            <v>36225.666666666664</v>
+          </cell>
+          <cell r="F21">
+            <v>462</v>
+          </cell>
+          <cell r="G21">
+            <v>412</v>
+          </cell>
+          <cell r="H21">
+            <v>233</v>
+          </cell>
+          <cell r="I21">
+            <v>16777206</v>
+          </cell>
+          <cell r="J21">
+            <v>10485764</v>
+          </cell>
+          <cell r="K21">
+            <v>29</v>
+          </cell>
+          <cell r="L21">
+            <v>23</v>
+          </cell>
+          <cell r="M21">
+            <v>134</v>
+          </cell>
+          <cell r="N21">
+            <v>134</v>
+          </cell>
+          <cell r="O21">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>397</v>
+          </cell>
+          <cell r="C22">
+            <v>678.33333333333337</v>
+          </cell>
+          <cell r="D22">
+            <v>86087.333333333328</v>
+          </cell>
+          <cell r="E22">
+            <v>72613.666666666672</v>
+          </cell>
+          <cell r="F22">
+            <v>968.33333333333337</v>
+          </cell>
+          <cell r="G22">
+            <v>431</v>
+          </cell>
+          <cell r="H22">
+            <v>244</v>
+          </cell>
+          <cell r="I22">
+            <v>33554422</v>
+          </cell>
+          <cell r="J22">
+            <v>20971524</v>
+          </cell>
+          <cell r="K22">
+            <v>29</v>
+          </cell>
+          <cell r="L22">
+            <v>23</v>
+          </cell>
+          <cell r="M22">
+            <v>164</v>
+          </cell>
+          <cell r="N22">
+            <v>260.66666666666669</v>
+          </cell>
+          <cell r="O22">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>395.66666666666669</v>
+          </cell>
+          <cell r="C23">
+            <v>679.66666666666663</v>
+          </cell>
+          <cell r="D23">
+            <v>171402</v>
+          </cell>
+          <cell r="E23">
+            <v>145338</v>
+          </cell>
+          <cell r="F23">
+            <v>2024</v>
+          </cell>
+          <cell r="G23">
+            <v>450</v>
+          </cell>
+          <cell r="H23">
+            <v>255</v>
+          </cell>
+          <cell r="I23">
+            <v>67108854</v>
+          </cell>
+          <cell r="J23">
+            <v>41943044</v>
+          </cell>
+          <cell r="K23">
+            <v>29.333333333333332</v>
+          </cell>
+          <cell r="L23">
+            <v>23</v>
+          </cell>
+          <cell r="M23">
+            <v>203</v>
+          </cell>
+          <cell r="N23">
+            <v>147</v>
+          </cell>
+          <cell r="O23">
+            <v>23.666666666666668</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>395.66666666666669</v>
+          </cell>
+          <cell r="C24">
+            <v>681.33333333333337</v>
+          </cell>
+          <cell r="F24">
+            <v>4216.666666666667</v>
+          </cell>
+          <cell r="G24">
+            <v>469</v>
+          </cell>
+          <cell r="H24">
+            <v>266</v>
+          </cell>
+          <cell r="K24">
+            <v>30</v>
+          </cell>
+          <cell r="L24">
+            <v>23</v>
+          </cell>
+          <cell r="O24">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>393.66666666666669</v>
+          </cell>
+          <cell r="C25">
+            <v>685</v>
+          </cell>
+          <cell r="F25">
+            <v>8800.3333333333339</v>
+          </cell>
+          <cell r="G25">
+            <v>488</v>
+          </cell>
+          <cell r="H25">
+            <v>277</v>
+          </cell>
+          <cell r="K25">
+            <v>30.666666666666668</v>
+          </cell>
+          <cell r="L25">
+            <v>23</v>
+          </cell>
+          <cell r="O25">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>397.66666666666669</v>
+          </cell>
+          <cell r="C26">
+            <v>679</v>
+          </cell>
+          <cell r="F26">
+            <v>18263.333333333332</v>
+          </cell>
+          <cell r="G26">
+            <v>507</v>
+          </cell>
+          <cell r="H26">
+            <v>288</v>
+          </cell>
+          <cell r="K26">
+            <v>30</v>
+          </cell>
+          <cell r="L26">
+            <v>23</v>
+          </cell>
+          <cell r="O26">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>392</v>
+          </cell>
+          <cell r="C27">
+            <v>685.33333333333337</v>
+          </cell>
+          <cell r="F27">
+            <v>38125.666666666664</v>
+          </cell>
+          <cell r="G27">
+            <v>526</v>
+          </cell>
+          <cell r="H27">
+            <v>299</v>
+          </cell>
+          <cell r="K27">
+            <v>30.666666666666668</v>
+          </cell>
+          <cell r="L27">
+            <v>23</v>
+          </cell>
+          <cell r="O27">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>393.33333333333331</v>
+          </cell>
+          <cell r="C28">
+            <v>677.33333333333337</v>
+          </cell>
+          <cell r="F28">
+            <v>79256.666666666672</v>
+          </cell>
+          <cell r="G28">
+            <v>545</v>
+          </cell>
+          <cell r="H28">
+            <v>310</v>
+          </cell>
+          <cell r="K28">
+            <v>30.333333333333332</v>
+          </cell>
+          <cell r="L28">
+            <v>23</v>
+          </cell>
+          <cell r="O28">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>411</v>
+          </cell>
+          <cell r="C29">
+            <v>684.66666666666663</v>
+          </cell>
+          <cell r="F29">
+            <v>164162</v>
+          </cell>
+          <cell r="G29">
+            <v>564</v>
+          </cell>
+          <cell r="H29">
+            <v>321</v>
+          </cell>
+          <cell r="K29">
+            <v>30.666666666666668</v>
+          </cell>
+          <cell r="L29">
+            <v>23</v>
+          </cell>
+          <cell r="O29">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>400</v>
+          </cell>
+          <cell r="C30">
+            <v>681.33333333333337</v>
+          </cell>
+          <cell r="G30">
+            <v>583</v>
+          </cell>
+          <cell r="H30">
+            <v>332</v>
+          </cell>
+          <cell r="K30">
+            <v>30.666666666666668</v>
+          </cell>
+          <cell r="L30">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>394</v>
+          </cell>
+          <cell r="C31">
+            <v>685.66666666666663</v>
+          </cell>
+          <cell r="G31">
+            <v>602</v>
+          </cell>
+          <cell r="H31">
+            <v>343</v>
+          </cell>
+          <cell r="K31">
+            <v>31</v>
+          </cell>
+          <cell r="L31">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>400.33333333333331</v>
+          </cell>
+          <cell r="C32">
+            <v>680</v>
+          </cell>
+          <cell r="G32">
+            <v>621</v>
+          </cell>
+          <cell r="H32">
+            <v>354</v>
+          </cell>
+          <cell r="K32">
+            <v>31</v>
+          </cell>
+          <cell r="L32">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>399.33333333333331</v>
+          </cell>
+          <cell r="C33">
+            <v>693.66666666666663</v>
+          </cell>
+          <cell r="G33">
+            <v>640</v>
+          </cell>
+          <cell r="H33">
+            <v>365</v>
+          </cell>
+          <cell r="K33">
+            <v>31.333333333333332</v>
+          </cell>
+          <cell r="L33">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>394.66666666666669</v>
+          </cell>
+          <cell r="C34">
+            <v>697.66666666666663</v>
+          </cell>
+          <cell r="G34">
+            <v>659</v>
+          </cell>
+          <cell r="H34">
+            <v>376</v>
+          </cell>
+          <cell r="K34">
+            <v>31.333333333333332</v>
+          </cell>
+          <cell r="L34">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>392</v>
+          </cell>
+          <cell r="C35">
+            <v>708.33333333333337</v>
+          </cell>
+          <cell r="G35">
+            <v>678</v>
+          </cell>
+          <cell r="H35">
+            <v>387</v>
+          </cell>
+          <cell r="K35">
+            <v>32</v>
+          </cell>
+          <cell r="L35">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>396</v>
+          </cell>
+          <cell r="C36">
+            <v>699.33333333333337</v>
+          </cell>
+          <cell r="G36">
+            <v>697</v>
+          </cell>
+          <cell r="H36">
+            <v>398</v>
+          </cell>
+          <cell r="K36">
+            <v>31.666666666666668</v>
+          </cell>
+          <cell r="L36">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>395.66666666666669</v>
+          </cell>
+          <cell r="C37">
+            <v>685.66666666666663</v>
+          </cell>
+          <cell r="G37">
+            <v>716</v>
+          </cell>
+          <cell r="H37">
+            <v>409</v>
+          </cell>
+          <cell r="K37">
+            <v>32</v>
+          </cell>
+          <cell r="L37">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>398</v>
+          </cell>
+          <cell r="C38">
+            <v>690.33333333333337</v>
+          </cell>
+          <cell r="G38">
+            <v>735</v>
+          </cell>
+          <cell r="H38">
+            <v>420</v>
+          </cell>
+          <cell r="K38">
+            <v>32</v>
+          </cell>
+          <cell r="L38">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>397.33333333333331</v>
+          </cell>
+          <cell r="C39">
+            <v>704.66666666666663</v>
+          </cell>
+          <cell r="G39">
+            <v>754</v>
+          </cell>
+          <cell r="H39">
+            <v>431</v>
+          </cell>
+          <cell r="K39">
+            <v>32</v>
+          </cell>
+          <cell r="L39">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>414.66666666666669</v>
+          </cell>
+          <cell r="C40">
+            <v>690.33333333333337</v>
+          </cell>
+          <cell r="G40">
+            <v>773</v>
+          </cell>
+          <cell r="H40">
+            <v>442</v>
+          </cell>
+          <cell r="K40">
+            <v>33</v>
+          </cell>
+          <cell r="L40">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>405.33333333333331</v>
+          </cell>
+          <cell r="C41">
+            <v>696.33333333333337</v>
+          </cell>
+          <cell r="G41">
+            <v>792</v>
+          </cell>
+          <cell r="H41">
+            <v>453</v>
+          </cell>
+          <cell r="K41">
+            <v>32.666666666666664</v>
+          </cell>
+          <cell r="L41">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>406</v>
+          </cell>
+          <cell r="C42">
+            <v>694</v>
+          </cell>
+          <cell r="G42">
+            <v>811</v>
+          </cell>
+          <cell r="H42">
+            <v>464</v>
+          </cell>
+          <cell r="K42">
+            <v>33</v>
+          </cell>
+          <cell r="L42">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>403.33333333333331</v>
+          </cell>
+          <cell r="C43">
+            <v>688.33333333333337</v>
+          </cell>
+          <cell r="G43">
+            <v>830</v>
+          </cell>
+          <cell r="H43">
+            <v>475</v>
+          </cell>
+          <cell r="K43">
+            <v>33</v>
+          </cell>
+          <cell r="L43">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>397.66666666666669</v>
+          </cell>
+          <cell r="C44">
+            <v>689</v>
+          </cell>
+          <cell r="G44">
+            <v>849</v>
+          </cell>
+          <cell r="H44">
+            <v>486</v>
+          </cell>
+          <cell r="K44">
+            <v>33</v>
+          </cell>
+          <cell r="L44">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>412.33333333333331</v>
+          </cell>
+          <cell r="C45">
+            <v>695.33333333333337</v>
+          </cell>
+          <cell r="G45">
+            <v>868</v>
+          </cell>
+          <cell r="H45">
+            <v>497</v>
+          </cell>
+          <cell r="K45">
+            <v>33</v>
+          </cell>
+          <cell r="L45">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>409.33333333333331</v>
+          </cell>
+          <cell r="C46">
+            <v>705</v>
+          </cell>
+          <cell r="G46">
+            <v>887</v>
+          </cell>
+          <cell r="H46">
+            <v>508</v>
+          </cell>
+          <cell r="K46">
+            <v>33</v>
+          </cell>
+          <cell r="L46">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>415.66666666666669</v>
+          </cell>
+          <cell r="C47">
+            <v>709</v>
+          </cell>
+          <cell r="G47">
+            <v>906</v>
+          </cell>
+          <cell r="H47">
+            <v>519</v>
+          </cell>
+          <cell r="K47">
+            <v>33.333333333333336</v>
+          </cell>
+          <cell r="L47">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>409.66666666666669</v>
+          </cell>
+          <cell r="C48">
+            <v>715</v>
+          </cell>
+          <cell r="G48">
+            <v>925</v>
+          </cell>
+          <cell r="H48">
+            <v>530</v>
+          </cell>
+          <cell r="K48">
+            <v>34</v>
+          </cell>
+          <cell r="L48">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>409</v>
+          </cell>
+          <cell r="C49">
+            <v>714</v>
+          </cell>
+          <cell r="G49">
+            <v>944</v>
+          </cell>
+          <cell r="H49">
+            <v>541</v>
+          </cell>
+          <cell r="K49">
+            <v>34</v>
+          </cell>
+          <cell r="L49">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>405</v>
+          </cell>
+          <cell r="C50">
+            <v>743.66666666666663</v>
+          </cell>
+          <cell r="G50">
+            <v>963</v>
+          </cell>
+          <cell r="H50">
+            <v>552</v>
+          </cell>
+          <cell r="K50">
+            <v>34</v>
+          </cell>
+          <cell r="L50">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>409</v>
+          </cell>
+          <cell r="C51">
+            <v>709.66666666666663</v>
+          </cell>
+          <cell r="G51">
+            <v>982</v>
+          </cell>
+          <cell r="H51">
+            <v>563</v>
+          </cell>
+          <cell r="K51">
+            <v>34</v>
+          </cell>
+          <cell r="L51">
+            <v>24.333333333333332</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>408.33333333333331</v>
+          </cell>
+          <cell r="C52">
+            <v>704.33333333333337</v>
+          </cell>
+          <cell r="G52">
+            <v>1001</v>
+          </cell>
+          <cell r="H52">
+            <v>574</v>
+          </cell>
+          <cell r="K52">
+            <v>34</v>
+          </cell>
+          <cell r="L52">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>400.66666666666669</v>
+          </cell>
+          <cell r="C53">
+            <v>712.66666666666663</v>
+          </cell>
+          <cell r="G53">
+            <v>1020</v>
+          </cell>
+          <cell r="H53">
+            <v>585</v>
+          </cell>
+          <cell r="K53">
+            <v>34.666666666666664</v>
+          </cell>
+          <cell r="L53">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>407.66666666666669</v>
+          </cell>
+          <cell r="C54">
+            <v>709.33333333333337</v>
+          </cell>
+          <cell r="G54">
+            <v>1039</v>
+          </cell>
+          <cell r="H54">
+            <v>596</v>
+          </cell>
+          <cell r="K54">
+            <v>34</v>
+          </cell>
+          <cell r="L54">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>406</v>
+          </cell>
+          <cell r="C55">
+            <v>705</v>
+          </cell>
+          <cell r="G55">
+            <v>1058</v>
+          </cell>
+          <cell r="H55">
+            <v>607</v>
+          </cell>
+          <cell r="K55">
+            <v>35</v>
+          </cell>
+          <cell r="L55">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>422.33333333333331</v>
+          </cell>
+          <cell r="C56">
+            <v>714</v>
+          </cell>
+          <cell r="G56">
+            <v>1077</v>
+          </cell>
+          <cell r="H56">
+            <v>618</v>
+          </cell>
+          <cell r="K56">
+            <v>35</v>
+          </cell>
+          <cell r="L56">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>410.66666666666669</v>
+          </cell>
+          <cell r="C57">
+            <v>713.33333333333337</v>
+          </cell>
+          <cell r="G57">
+            <v>1096</v>
+          </cell>
+          <cell r="H57">
+            <v>629</v>
+          </cell>
+          <cell r="K57">
+            <v>35</v>
+          </cell>
+          <cell r="L57">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>425.33333333333331</v>
+          </cell>
+          <cell r="C58">
+            <v>711.66666666666663</v>
+          </cell>
+          <cell r="G58">
+            <v>1115</v>
+          </cell>
+          <cell r="H58">
+            <v>640</v>
+          </cell>
+          <cell r="K58">
+            <v>35</v>
+          </cell>
+          <cell r="L58">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>416</v>
+          </cell>
+          <cell r="C59">
+            <v>702.66666666666663</v>
+          </cell>
+          <cell r="G59">
+            <v>1134</v>
+          </cell>
+          <cell r="H59">
+            <v>651</v>
+          </cell>
+          <cell r="K59">
+            <v>35</v>
+          </cell>
+          <cell r="L59">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>417.33333333333331</v>
+          </cell>
+          <cell r="C60">
+            <v>703.66666666666663</v>
+          </cell>
+          <cell r="G60">
+            <v>1153</v>
+          </cell>
+          <cell r="H60">
+            <v>662</v>
+          </cell>
+          <cell r="K60">
+            <v>35.333333333333336</v>
+          </cell>
+          <cell r="L60">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>410</v>
+          </cell>
+          <cell r="C61">
+            <v>701</v>
+          </cell>
+          <cell r="G61">
+            <v>1172</v>
+          </cell>
+          <cell r="H61">
+            <v>673</v>
+          </cell>
+          <cell r="K61">
+            <v>36</v>
+          </cell>
+          <cell r="L61">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>402.33333333333331</v>
+          </cell>
+          <cell r="C62">
+            <v>698</v>
+          </cell>
+          <cell r="G62">
+            <v>1191</v>
+          </cell>
+          <cell r="H62">
+            <v>684</v>
+          </cell>
+          <cell r="K62">
+            <v>35.666666666666664</v>
+          </cell>
+          <cell r="L62">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>423.33333333333331</v>
+          </cell>
+          <cell r="C63">
+            <v>704.66666666666663</v>
+          </cell>
+          <cell r="G63">
+            <v>1210</v>
+          </cell>
+          <cell r="H63">
+            <v>695</v>
+          </cell>
+          <cell r="K63">
+            <v>36</v>
+          </cell>
+          <cell r="L63">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>427.33333333333331</v>
+          </cell>
+          <cell r="C64">
+            <v>701</v>
+          </cell>
+          <cell r="G64">
+            <v>1229</v>
+          </cell>
+          <cell r="H64">
+            <v>706</v>
+          </cell>
+          <cell r="K64">
+            <v>36</v>
+          </cell>
+          <cell r="L64">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>438.33333333333331</v>
+          </cell>
+          <cell r="C65">
+            <v>703</v>
+          </cell>
+          <cell r="G65">
+            <v>1248</v>
+          </cell>
+          <cell r="H65">
+            <v>717</v>
+          </cell>
+          <cell r="K65">
+            <v>36</v>
+          </cell>
+          <cell r="L65">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>415.66666666666669</v>
+          </cell>
+          <cell r="C66">
+            <v>701</v>
+          </cell>
+          <cell r="G66">
+            <v>1267</v>
+          </cell>
+          <cell r="H66">
+            <v>728</v>
+          </cell>
+          <cell r="K66">
+            <v>36.333333333333336</v>
+          </cell>
+          <cell r="L66">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>420.66666666666669</v>
+          </cell>
+          <cell r="C67">
+            <v>705.33333333333337</v>
+          </cell>
+          <cell r="G67">
+            <v>1286</v>
+          </cell>
+          <cell r="H67">
+            <v>739</v>
+          </cell>
+          <cell r="K67">
+            <v>36.333333333333336</v>
+          </cell>
+          <cell r="L67">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>414.33333333333331</v>
+          </cell>
+          <cell r="C68">
+            <v>702.66666666666663</v>
+          </cell>
+          <cell r="G68">
+            <v>1305</v>
+          </cell>
+          <cell r="H68">
+            <v>750</v>
+          </cell>
+          <cell r="K68">
+            <v>37</v>
+          </cell>
+          <cell r="L68">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>421.66666666666669</v>
+          </cell>
+          <cell r="C69">
+            <v>704</v>
+          </cell>
+          <cell r="G69">
+            <v>1324</v>
+          </cell>
+          <cell r="H69">
+            <v>761</v>
+          </cell>
+          <cell r="K69">
+            <v>37</v>
+          </cell>
+          <cell r="L69">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>410</v>
+          </cell>
+          <cell r="C70">
+            <v>706</v>
+          </cell>
+          <cell r="G70">
+            <v>1343</v>
+          </cell>
+          <cell r="H70">
+            <v>772</v>
+          </cell>
+          <cell r="K70">
+            <v>37</v>
+          </cell>
+          <cell r="L70">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>420.66666666666669</v>
+          </cell>
+          <cell r="C71">
+            <v>704</v>
+          </cell>
+          <cell r="G71">
+            <v>1362</v>
+          </cell>
+          <cell r="H71">
+            <v>783</v>
+          </cell>
+          <cell r="K71">
+            <v>37</v>
+          </cell>
+          <cell r="L71">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>408</v>
+          </cell>
+          <cell r="C72">
+            <v>705.66666666666663</v>
+          </cell>
+          <cell r="G72">
+            <v>1381</v>
+          </cell>
+          <cell r="H72">
+            <v>794</v>
+          </cell>
+          <cell r="K72">
+            <v>37.666666666666664</v>
+          </cell>
+          <cell r="L72">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>413.66666666666669</v>
+          </cell>
+          <cell r="C73">
+            <v>703.33333333333337</v>
+          </cell>
+          <cell r="G73">
+            <v>1400</v>
+          </cell>
+          <cell r="H73">
+            <v>805</v>
+          </cell>
+          <cell r="K73">
+            <v>37.333333333333336</v>
+          </cell>
+          <cell r="L73">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>424.66666666666669</v>
+          </cell>
+          <cell r="C74">
+            <v>708.33333333333337</v>
+          </cell>
+          <cell r="G74">
+            <v>1419</v>
+          </cell>
+          <cell r="H74">
+            <v>816</v>
+          </cell>
+          <cell r="K74">
+            <v>37.666666666666664</v>
+          </cell>
+          <cell r="L74">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>441.66666666666669</v>
+          </cell>
+          <cell r="C75">
+            <v>703.66666666666663</v>
+          </cell>
+          <cell r="G75">
+            <v>1438</v>
+          </cell>
+          <cell r="H75">
+            <v>827</v>
+          </cell>
+          <cell r="K75">
+            <v>38</v>
+          </cell>
+          <cell r="L75">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>422</v>
+          </cell>
+          <cell r="C76">
+            <v>711</v>
+          </cell>
+          <cell r="G76">
+            <v>1457</v>
+          </cell>
+          <cell r="H76">
+            <v>838</v>
+          </cell>
+          <cell r="K76">
+            <v>38</v>
+          </cell>
+          <cell r="L76">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>424.33333333333331</v>
+          </cell>
+          <cell r="C77">
+            <v>711.66666666666663</v>
+          </cell>
+          <cell r="G77">
+            <v>1476</v>
+          </cell>
+          <cell r="H77">
+            <v>849</v>
+          </cell>
+          <cell r="K77">
+            <v>38</v>
+          </cell>
+          <cell r="L77">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>420</v>
+          </cell>
+          <cell r="C78">
+            <v>705.66666666666663</v>
+          </cell>
+          <cell r="G78">
+            <v>1495</v>
+          </cell>
+          <cell r="H78">
+            <v>860</v>
+          </cell>
+          <cell r="K78">
+            <v>38</v>
+          </cell>
+          <cell r="L78">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>426</v>
+          </cell>
+          <cell r="C79">
+            <v>709.33333333333337</v>
+          </cell>
+          <cell r="G79">
+            <v>1514</v>
+          </cell>
+          <cell r="H79">
+            <v>871</v>
+          </cell>
+          <cell r="K79">
+            <v>38.333333333333336</v>
+          </cell>
+          <cell r="L79">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>428.66666666666669</v>
+          </cell>
+          <cell r="C80">
+            <v>739.33333333333337</v>
+          </cell>
+          <cell r="G80">
+            <v>1533</v>
+          </cell>
+          <cell r="H80">
+            <v>882</v>
+          </cell>
+          <cell r="K80">
+            <v>39</v>
+          </cell>
+          <cell r="L80">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>417.33333333333331</v>
+          </cell>
+          <cell r="C81">
+            <v>713.66666666666663</v>
+          </cell>
+          <cell r="G81">
+            <v>1552</v>
+          </cell>
+          <cell r="H81">
+            <v>893</v>
+          </cell>
+          <cell r="K81">
+            <v>39</v>
+          </cell>
+          <cell r="L81">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>422.33333333333331</v>
+          </cell>
+          <cell r="C82">
+            <v>725.33333333333337</v>
+          </cell>
+          <cell r="G82">
+            <v>1571</v>
+          </cell>
+          <cell r="H82">
+            <v>904</v>
+          </cell>
+          <cell r="K82">
+            <v>39</v>
+          </cell>
+          <cell r="L82">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>426</v>
+          </cell>
+          <cell r="C83">
+            <v>717.33333333333337</v>
+          </cell>
+          <cell r="G83">
+            <v>1590</v>
+          </cell>
+          <cell r="H83">
+            <v>915</v>
+          </cell>
+          <cell r="K83">
+            <v>39</v>
+          </cell>
+          <cell r="L83">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>424.33333333333331</v>
+          </cell>
+          <cell r="C84">
+            <v>714.66666666666663</v>
+          </cell>
+          <cell r="G84">
+            <v>1609</v>
+          </cell>
+          <cell r="H84">
+            <v>926</v>
+          </cell>
+          <cell r="K84">
+            <v>39.333333333333336</v>
+          </cell>
+          <cell r="L84">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>418.33333333333331</v>
+          </cell>
+          <cell r="C85">
+            <v>713</v>
+          </cell>
+          <cell r="G85">
+            <v>1628</v>
+          </cell>
+          <cell r="H85">
+            <v>937</v>
+          </cell>
+          <cell r="K85">
+            <v>39.666666666666664</v>
+          </cell>
+          <cell r="L85">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>424</v>
+          </cell>
+          <cell r="C86">
+            <v>715</v>
+          </cell>
+          <cell r="G86">
+            <v>1647</v>
+          </cell>
+          <cell r="H86">
+            <v>948</v>
+          </cell>
+          <cell r="K86">
+            <v>40</v>
+          </cell>
+          <cell r="L86">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>416</v>
+          </cell>
+          <cell r="C87">
+            <v>714</v>
+          </cell>
+          <cell r="G87">
+            <v>1666</v>
+          </cell>
+          <cell r="H87">
+            <v>959</v>
+          </cell>
+          <cell r="K87">
+            <v>40</v>
+          </cell>
+          <cell r="L87">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>418.33333333333331</v>
+          </cell>
+          <cell r="C88">
+            <v>718.33333333333337</v>
+          </cell>
+          <cell r="G88">
+            <v>1685</v>
+          </cell>
+          <cell r="H88">
+            <v>970</v>
+          </cell>
+          <cell r="K88">
+            <v>40</v>
+          </cell>
+          <cell r="L88">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>424</v>
+          </cell>
+          <cell r="C89">
+            <v>714</v>
+          </cell>
+          <cell r="G89">
+            <v>1704</v>
+          </cell>
+          <cell r="H89">
+            <v>981</v>
+          </cell>
+          <cell r="K89">
+            <v>40</v>
+          </cell>
+          <cell r="L89">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>419</v>
+          </cell>
+          <cell r="C90">
+            <v>717.33333333333337</v>
+          </cell>
+          <cell r="G90">
+            <v>1723</v>
+          </cell>
+          <cell r="H90">
+            <v>992</v>
+          </cell>
+          <cell r="K90">
+            <v>40</v>
+          </cell>
+          <cell r="L90">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>421.66666666666669</v>
+          </cell>
+          <cell r="C91">
+            <v>719.33333333333337</v>
+          </cell>
+          <cell r="G91">
+            <v>1742</v>
+          </cell>
+          <cell r="H91">
+            <v>1003</v>
+          </cell>
+          <cell r="K91">
+            <v>41</v>
+          </cell>
+          <cell r="L91">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>418</v>
+          </cell>
+          <cell r="C92">
+            <v>718.66666666666663</v>
+          </cell>
+          <cell r="G92">
+            <v>1761</v>
+          </cell>
+          <cell r="H92">
+            <v>1014</v>
+          </cell>
+          <cell r="K92">
+            <v>41</v>
+          </cell>
+          <cell r="L92">
+            <v>26.666666666666668</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>423.66666666666669</v>
+          </cell>
+          <cell r="C93">
+            <v>720.33333333333337</v>
+          </cell>
+          <cell r="G93">
+            <v>1780</v>
+          </cell>
+          <cell r="H93">
+            <v>1025</v>
+          </cell>
+          <cell r="K93">
+            <v>41</v>
+          </cell>
+          <cell r="L93">
+            <v>27.333333333333332</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>428.66666666666669</v>
+          </cell>
+          <cell r="C94">
+            <v>714.33333333333337</v>
+          </cell>
+          <cell r="G94">
+            <v>1799</v>
+          </cell>
+          <cell r="H94">
+            <v>1036</v>
+          </cell>
+          <cell r="K94">
+            <v>41</v>
+          </cell>
+          <cell r="L94">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>432.33333333333331</v>
+          </cell>
+          <cell r="C95">
+            <v>721</v>
+          </cell>
+          <cell r="G95">
+            <v>1818</v>
+          </cell>
+          <cell r="H95">
+            <v>1047</v>
+          </cell>
+          <cell r="K95">
+            <v>41</v>
+          </cell>
+          <cell r="L95">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>432.33333333333331</v>
+          </cell>
+          <cell r="C96">
+            <v>722.66666666666663</v>
+          </cell>
+          <cell r="G96">
+            <v>1837</v>
+          </cell>
+          <cell r="H96">
+            <v>1058</v>
+          </cell>
+          <cell r="K96">
+            <v>41.333333333333336</v>
+          </cell>
+          <cell r="L96">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>423</v>
+          </cell>
+          <cell r="C97">
+            <v>721</v>
+          </cell>
+          <cell r="G97">
+            <v>1856</v>
+          </cell>
+          <cell r="H97">
+            <v>1069</v>
+          </cell>
+          <cell r="K97">
+            <v>41.666666666666664</v>
+          </cell>
+          <cell r="L97">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>426.66666666666669</v>
+          </cell>
+          <cell r="C98">
+            <v>720.33333333333337</v>
+          </cell>
+          <cell r="G98">
+            <v>1875</v>
+          </cell>
+          <cell r="H98">
+            <v>1080</v>
+          </cell>
+          <cell r="K98">
+            <v>42</v>
+          </cell>
+          <cell r="L98">
+            <v>27.333333333333332</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>422.66666666666669</v>
+          </cell>
+          <cell r="C99">
+            <v>724</v>
+          </cell>
+          <cell r="G99">
+            <v>1894</v>
+          </cell>
+          <cell r="H99">
+            <v>1091</v>
+          </cell>
+          <cell r="K99">
+            <v>42</v>
+          </cell>
+          <cell r="L99">
+            <v>27.333333333333332</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>428.66666666666669</v>
+          </cell>
+          <cell r="C100">
+            <v>727</v>
+          </cell>
+          <cell r="G100">
+            <v>1913</v>
+          </cell>
+          <cell r="H100">
+            <v>1102</v>
+          </cell>
+          <cell r="K100">
+            <v>42</v>
+          </cell>
+          <cell r="L100">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>425.33333333333331</v>
+          </cell>
+          <cell r="C101">
+            <v>731.33333333333337</v>
+          </cell>
+          <cell r="G101">
+            <v>1932</v>
+          </cell>
+          <cell r="H101">
+            <v>1113</v>
+          </cell>
+          <cell r="K101">
+            <v>42</v>
+          </cell>
+          <cell r="L101">
+            <v>27.333333333333332</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>428</v>
+          </cell>
+          <cell r="C102">
+            <v>728.33333333333337</v>
+          </cell>
+          <cell r="G102">
+            <v>1951</v>
+          </cell>
+          <cell r="H102">
+            <v>1124</v>
+          </cell>
+          <cell r="K102">
+            <v>42.333333333333336</v>
+          </cell>
+          <cell r="L102">
+            <v>27</v>
           </cell>
         </row>
       </sheetData>
@@ -32551,8 +41245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" topLeftCell="N2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
